--- a/report/No_1テスト結果.xlsx
+++ b/report/No_1テスト結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -110,9 +110,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -137,13 +140,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>113886</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>86591</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>131180</xdr:rowOff>
+      <xdr:rowOff>148498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -160,8 +163,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="504265"/>
-          <a:ext cx="9078592" cy="8535591"/>
+          <a:off x="0" y="536863"/>
+          <a:ext cx="12365182" cy="8790271"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -591,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showFormulas="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -615,11 +618,18 @@
       <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -630,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -664,7 +674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -694,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/report/No_1テスト結果.xlsx
+++ b/report/No_1テスト結果.xlsx
@@ -139,57 +139,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>86591</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>148498</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="536863"/>
-          <a:ext cx="12365182" cy="8790271"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>50011</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>9252</xdr:rowOff>
+      <xdr:colOff>223196</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>94169</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -206,8 +163,89 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="557893"/>
+          <a:off x="0" y="672353"/>
+          <a:ext cx="10879068" cy="4296375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>50011</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>50073</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="598714"/>
           <a:ext cx="13017618" cy="6350180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>459644</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>135756</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="598714"/>
+          <a:ext cx="17509394" cy="7497221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -595,7 +633,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showFormulas="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -731,21 +769,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C424317A42AA8449A97AAE94730ED181" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9df5c7ff725c9e365f8a8503f6029c6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dab87824-9c6b-4a08-9c96-9c9ea904f12c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98e3d8fd3bbedc5b58bd9df00d6be37e" ns2:_="">
     <xsd:import namespace="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
@@ -903,31 +926,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -943,4 +957,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>